--- a/public/sample-users.xlsx
+++ b/public/sample-users.xlsx
@@ -1,76 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kehindeehinmitan/Projects/Orange/depleteiq/client/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kehindeehinmitan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2374D13-C5FA-014C-8A01-E23BAEDF4C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F745F5F8-0585-2F42-ABFB-196AB22EA7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="640" windowWidth="20960" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>send_notification</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
   <si>
     <t>John</t>
   </si>
   <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Mushin market</t>
+  </si>
+  <si>
+    <t>operations</t>
+  </si>
+  <si>
     <t>Jane</t>
   </si>
   <si>
-    <t>Doe</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
-    <t>john.doe@example.com</t>
-  </si>
-  <si>
     <t>jane.smith@example.com</t>
   </si>
   <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>pass123</t>
-  </si>
-  <si>
-    <t>secure456</t>
+    <t>2345678901</t>
+  </si>
+  <si>
+    <t>super-admin</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,7 +138,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -152,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,84 +191,24 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -292,7 +231,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -383,7 +322,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -405,11 +344,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -424,9 +361,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -438,24 +373,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,57 +406,49 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>